--- a/PreliminaryDesign/Report/airfoil.xlsx
+++ b/PreliminaryDesign/Report/airfoil.xlsx
@@ -66,13 +66,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -87,12 +80,22 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -226,55 +229,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="A1:F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,10 +592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="13" t="s">
@@ -604,108 +604,108 @@
       <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>0.3</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="2">
         <v>0.3</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>0.2</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>1.6</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <v>3.1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>3.1</v>
       </c>
     </row>
